--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2195</v>
+        <v>6.302615</v>
       </c>
       <c r="N2">
-        <v>0.6585</v>
+        <v>18.907845</v>
       </c>
       <c r="O2">
-        <v>0.0233252910374668</v>
+        <v>0.6149105851929696</v>
       </c>
       <c r="P2">
-        <v>0.0233252910374668</v>
+        <v>0.6149105851929696</v>
       </c>
       <c r="Q2">
-        <v>0.07178923100000001</v>
+        <v>2.06132065667</v>
       </c>
       <c r="R2">
-        <v>0.646103079</v>
+        <v>18.55188591003</v>
       </c>
       <c r="S2">
-        <v>0.0233252910374668</v>
+        <v>0.6149105851929696</v>
       </c>
       <c r="T2">
-        <v>0.0233252910374668</v>
+        <v>0.6149105851929696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -614,90 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.302614999999999</v>
+        <v>3.947029666666667</v>
       </c>
       <c r="N3">
-        <v>18.907845</v>
+        <v>11.841089</v>
       </c>
       <c r="O3">
-        <v>0.6697509301690376</v>
+        <v>0.3850894148070304</v>
       </c>
       <c r="P3">
-        <v>0.6697509301690376</v>
+        <v>0.3850894148070304</v>
       </c>
       <c r="Q3">
-        <v>2.06132065667</v>
+        <v>1.290907628720667</v>
       </c>
       <c r="R3">
-        <v>18.55188591003</v>
+        <v>11.618168658486</v>
       </c>
       <c r="S3">
-        <v>0.6697509301690376</v>
+        <v>0.3850894148070304</v>
       </c>
       <c r="T3">
-        <v>0.6697509301690376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.327058</v>
-      </c>
-      <c r="H4">
-        <v>0.981174</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.888271333333333</v>
-      </c>
-      <c r="N4">
-        <v>8.664814</v>
-      </c>
-      <c r="O4">
-        <v>0.3069237787934955</v>
-      </c>
-      <c r="P4">
-        <v>0.3069237787934955</v>
-      </c>
-      <c r="Q4">
-        <v>0.9446322457373334</v>
-      </c>
-      <c r="R4">
-        <v>8.501690211635999</v>
-      </c>
-      <c r="S4">
-        <v>0.3069237787934955</v>
-      </c>
-      <c r="T4">
-        <v>0.3069237787934955</v>
+        <v>0.3850894148070304</v>
       </c>
     </row>
   </sheetData>
